--- a/RESPUESTA_FRECUENCIA_0.xlsx
+++ b/RESPUESTA_FRECUENCIA_0.xlsx
@@ -28,7 +28,7 @@
     <t>Coherence</t>
   </si>
   <si>
-    <t>*</t>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>

--- a/RESPUESTA_FRECUENCIA_0.xlsx
+++ b/RESPUESTA_FRECUENCIA_0.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>rta freq 0°</t>
   </si>
@@ -26,9 +26,6 @@
   </si>
   <si>
     <t>Coherence</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -308,14 +305,14 @@
       <c r="A3" s="1">
         <v>10.742188</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
+      <c r="B3" s="1">
+        <v>-10.0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>-10.0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>-10.0</v>
       </c>
     </row>
     <row r="4">
@@ -350,98 +347,98 @@
       <c r="A6" s="1">
         <v>13.671875</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>5</v>
+      <c r="B6" s="1">
+        <v>-10.0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>-10.0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>-10.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1">
         <v>14.648438</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>5</v>
+      <c r="B7" s="1">
+        <v>-10.0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>-10.0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>-10.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1">
         <v>15.625</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>5</v>
+      <c r="B8" s="1">
+        <v>-10.0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>-10.0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>-10.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1">
         <v>16.601563</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>5</v>
+      <c r="B9" s="1">
+        <v>-10.0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>-10.0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>-10.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1">
         <v>17.578125</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>5</v>
+      <c r="B10" s="1">
+        <v>-10.0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>-10.0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>-10.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1">
         <v>18.554688</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>5</v>
+      <c r="B11" s="1">
+        <v>-10.0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>-10.0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>-10.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1">
         <v>19.53125</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>5</v>
+      <c r="B12" s="1">
+        <v>-10.0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>-10.0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>-10.0</v>
       </c>
     </row>
     <row r="13">
